--- a/src/testCase/c_useCase_file/Fiberbook/机翼优化响应/梁腹板缘条厚度比设计响应.xlsx
+++ b/src/testCase/c_useCase_file/Fiberbook/机翼优化响应/梁腹板缘条厚度比设计响应.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="控件属性已经操作方法" sheetId="2" r:id="rId1"/>
@@ -394,50 +394,46 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>选择结构单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出到include文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Edit2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>选择结构单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出到include文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮--弹窗套件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Button2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -619,6 +615,10 @@
   </si>
   <si>
     <t>机翼优化响应--梁腹板缘条厚度比设计响应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1087,34 +1087,34 @@
     <row r="1" spans="1:11" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1125,22 +1125,22 @@
         <v>11</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>11</v>
@@ -1149,39 +1149,39 @@
         <v>13</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>14</v>
@@ -1189,37 +1189,37 @@
     </row>
     <row r="4" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="K4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1227,39 +1227,39 @@
         <v>8</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="I5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
@@ -1294,142 +1294,142 @@
     </row>
     <row r="7" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="I8" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="K10" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1449,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1468,7 +1468,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>9</v>
@@ -1498,75 +1498,75 @@
         <v>6</v>
       </c>
       <c r="K1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>48</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="16" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="J2" s="14">
         <v>1</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="11">
@@ -1576,13 +1576,13 @@
         <v>1.5</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R2" s="11">
         <v>1.5</v>
@@ -1591,13 +1591,13 @@
         <v>12</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
